--- a/Output Data/Insertion Sort on Descending Array Results.xlsx
+++ b/Output Data/Insertion Sort on Descending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>499500.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>5843021.0</v>
+        <v>883530.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>1999000.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>4554076.0</v>
+        <v>3576461.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>4498500.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>7953916.0</v>
+        <v>8055270.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>7998000.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>1.4474767E7</v>
+        <v>1.3970564E7</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>1.24975E7</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>2.2075442E7</v>
+        <v>2.4271867E7</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>1.7997E7</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>3.1113459E7</v>
+        <v>3.2256147E7</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>2.44965E7</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>4.2702851E7</v>
+        <v>4.3332357E7</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>3.1996E7</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>5.5523031E7</v>
+        <v>5.660542E7</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>4.04955E7</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>7.0063656E7</v>
+        <v>7.0787673E7</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>4.9995E7</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>8.6558656E7</v>
+        <v>8.842365E7</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>6.04945E7</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1.05500686E8</v>
+        <v>1.05848795E8</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>7.1994E7</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1.25009355E8</v>
+        <v>1.26054538E8</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>8.44935E7</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1.46510887E8</v>
+        <v>1.50595399E8</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>9.7993E7</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1.69661449E8</v>
+        <v>1.72322733E8</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1.124925E8</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>1.95807718E8</v>
+        <v>1.98798296E8</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>1.27992E8</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>2.75536758E8</v>
+        <v>2.30220519E8</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>1.444915E8</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2.56317182E8</v>
+        <v>2.62761483E8</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>1.61991E8</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2.8693328E8</v>
+        <v>2.84871992E8</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>1.804905E8</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>3.21990553E8</v>
+        <v>3.18357214E8</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>1.9999E8</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>3.53840858E8</v>
+        <v>3.60195352E8</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>2.204895E8</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>3.90288858E8</v>
+        <v>3.86079043E8</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>2.41989E8</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>4.23978498E8</v>
+        <v>4.2764049E8</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>2.644885E8</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>4.6491386E8</v>
+        <v>4.70030726E8</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>2.87988E8</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>5.09706224E8</v>
+        <v>5.14575052E8</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>3.124875E8</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>5.54045703E8</v>
+        <v>5.52643857E8</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>3.37987E8</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>5.90342742E8</v>
+        <v>6.0160712E8</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>3.644865E8</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>6.55162519E8</v>
+        <v>6.43415322E8</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>3.91986E8</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>6.88158078E8</v>
+        <v>6.91820497E8</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>4.204855E8</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>7.57657659E8</v>
+        <v>7.4668708E8</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>4.49985E8</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>8.41252253E8</v>
+        <v>8.0071418E8</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>4.804845E8</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>8.64404525E8</v>
+        <v>8.67254404E8</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>5.11984E8</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>9.1908123E8</v>
+        <v>9.02606758E8</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>5.444835E8</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>9.95631953E8</v>
+        <v>9.60540895E8</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>5.77983E8</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>1.136213433E9</v>
+        <v>1.027856026E9</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>6.124825E8</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>1.097740069E9</v>
+        <v>1.087805692E9</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>6.47982E8</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>1.157176122E9</v>
+        <v>1.154809064E9</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>6.844815E8</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>1.209957898E9</v>
+        <v>1.215057231E9</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>7.21981E8</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>1.277271746E9</v>
+        <v>1.267292893E9</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>7.604805E8</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>1.35120395E9</v>
+        <v>1.349633608E9</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>7.9998E8</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.629380609E9</v>
+        <v>1.44722186E9</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>8.404795E8</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>1.606627337E9</v>
+        <v>1.492751498E9</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>8.81979E8</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>1.627078981E9</v>
+        <v>1.570627944E9</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>9.244785E8</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>2.018895416E9</v>
+        <v>1.635449004E9</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>9.67978E8</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>1.766332171E9</v>
+        <v>1.7217562E9</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>1.0124775E9</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>1.784509984E9</v>
+        <v>1.796798163E9</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>1.057977E9</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>1.862773457E9</v>
+        <v>1.922434457E9</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>1.1044765E9</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>1.982690322E9</v>
+        <v>1.972358228E9</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>1.151976E9</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>2.035754775E9</v>
+        <v>2.059707614E9</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>1.2004755E9</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>2.096102158E9</v>
+        <v>2.161220864E9</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>1.249975E9</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>2.207613932E9</v>
+        <v>2.233826916E9</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>1.3004745E9</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>2.315706622E9</v>
+        <v>2.337940296E9</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>1.351974E9</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>2.330811322E9</v>
+        <v>2.43382435E9</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>1.4044735E9</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>2.470417753E9</v>
+        <v>2.493669668E9</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>1.457973E9</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>2.595687976E9</v>
+        <v>2.612454107E9</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>1.5124725E9</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>2.731281312E9</v>
+        <v>2.703717801E9</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>1.567972E9</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>2.771038491E9</v>
+        <v>2.795437799E9</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>1.6244715E9</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>2.869117261E9</v>
+        <v>2.891923561E9</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>1.681971E9</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>3.000013685E9</v>
+        <v>2.993137882E9</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>1.7404705E9</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>3.052999023E9</v>
+        <v>3.12241564E9</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>1.79997E9</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>3.135216146E9</v>
+        <v>3.205813514E9</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>1.8604695E9</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>3.25683678E9</v>
+        <v>3.304588075E9</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>1.921969E9</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>3.332831982E9</v>
+        <v>3.455337001E9</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>1.9844685E9</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>3.48893384E9</v>
+        <v>3.555040424E9</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>2.047968E9</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>3.600715464E9</v>
+        <v>3.686052742E9</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>2.1124675E9</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>3.738751553E9</v>
+        <v>3.809809075E9</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>2.177967E9</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>3.926892739E9</v>
+        <v>3.889641605E9</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>2.2444665E9</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>3.937650347E9</v>
+        <v>4.002449596E9</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>2.311966E9</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>4.088389438E9</v>
+        <v>4.120187141E9</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>2.3804655E9</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>4.176596268E9</v>
+        <v>4.222344008E9</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>2.449965E9</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>4.321577013E9</v>
+        <v>4.367048062E9</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>2.5204645E9</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>4.404198268E9</v>
+        <v>4.474660497E9</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>2.591964E9</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>4.464493905E9</v>
+        <v>4.670843695E9</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>2.6644635E9</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>4.605492346E9</v>
+        <v>4.7493381E9</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>2.737963E9</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>4.835850142E9</v>
+        <v>4.934048654E9</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>2.8124625E9</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>4.908882564E9</v>
+        <v>5.017293855E9</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>2.887962E9</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>5.082688397E9</v>
+        <v>5.141787033E9</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>2.9644615E9</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>5.289317445E9</v>
+        <v>5.30636711E9</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>3.041961E9</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>5.355316688E9</v>
+        <v>5.452833094E9</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>3.1204605E9</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>5.478151427E9</v>
+        <v>5.595442503E9</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>3.19996E9</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>5.629816815E9</v>
+        <v>5.821019995E9</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>3.2804595E9</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>5.693725263E9</v>
+        <v>5.792182933E9</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>3.361959E9</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>5.908313358E9</v>
+        <v>5.928779115E9</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>3.4444585E9</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>6.052092399E9</v>
+        <v>6.155990241E9</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>3.527958E9</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>6.198713621E9</v>
+        <v>6.335679722E9</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>3.6124575E9</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>6.33462342E9</v>
+        <v>6.559252377E9</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>3.697957E9</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>6.485538704E9</v>
+        <v>6.49737357E9</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>3.7844565E9</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>6.637266956E9</v>
+        <v>6.645312818E9</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>3.871956E9</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>6.676498121E9</v>
+        <v>6.829017531E9</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>3.9604555E9</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>6.934986069E9</v>
+        <v>6.979877221E9</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>4.049955E9</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>7.10504053E9</v>
+        <v>7.154129524E9</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>4.1404545E9</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>7.266773294E9</v>
+        <v>7.291128982E9</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>4.231954E9</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>7.425457749E9</v>
+        <v>7.48096239E9</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>4.3244535E9</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>7.596716053E9</v>
+        <v>7.637722407E9</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>4.417953E9</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>7.753847272E9</v>
+        <v>7.842545048E9</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>4.5124525E9</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>7.983836431E9</v>
+        <v>7.840365302E9</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>4.607952E9</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>8.103858926E9</v>
+        <v>8.034263977E9</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>4.7044515E9</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>8.284638067E9</v>
+        <v>8.045273473E9</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>4.801951E9</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>8.449281437E9</v>
+        <v>8.211315696E9</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>4.9004505E9</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>8.653286406E9</v>
+        <v>8.426252756E9</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>4.99995E9</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>8.888624219E9</v>
+        <v>8.648737889E9</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Insertion Sort on Descending Array Results.xlsx
+++ b/Output Data/Insertion Sort on Descending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>499500.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>883530.0</v>
+        <v>896361.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>1999000.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>3576461.0</v>
+        <v>3570046.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>4498500.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>8055270.0</v>
+        <v>8031321.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>7998000.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>1.3970564E7</v>
+        <v>1.4443122E7</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>1.24975E7</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>2.4271867E7</v>
+        <v>2.1608873E7</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>1.7997E7</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>3.2256147E7</v>
+        <v>3.1548381E7</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>2.44965E7</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>4.3332357E7</v>
+        <v>4.3043691E7</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>3.1996E7</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>5.660542E7</v>
+        <v>5.5778767E7</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>4.04955E7</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>7.0787673E7</v>
+        <v>6.8954324E7</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>4.9995E7</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>8.842365E7</v>
+        <v>8.7387447E7</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>6.04945E7</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1.05848795E8</v>
+        <v>1.05738032E8</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>7.1994E7</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1.26054538E8</v>
+        <v>1.2263075E8</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>8.44935E7</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1.50595399E8</v>
+        <v>1.49761477E8</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>9.7993E7</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1.72322733E8</v>
+        <v>1.70666861E8</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1.124925E8</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>1.98798296E8</v>
+        <v>1.96267445E8</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>1.27992E8</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>2.30220519E8</v>
+        <v>2.22976935E8</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>1.444915E8</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2.62761483E8</v>
+        <v>2.5208855E8</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>1.61991E8</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2.84871992E8</v>
+        <v>2.82288114E8</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>1.804905E8</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>3.18357214E8</v>
+        <v>3.08249638E8</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>1.9999E8</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>3.60195352E8</v>
+        <v>3.47867402E8</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>2.204895E8</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>3.86079043E8</v>
+        <v>3.82815197E8</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>2.41989E8</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>4.2764049E8</v>
+        <v>4.13627587E8</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>2.644885E8</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>4.70030726E8</v>
+        <v>4.60594138E8</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>2.87988E8</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>5.14575052E8</v>
+        <v>5.04784367E8</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>3.124875E8</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>5.52643857E8</v>
+        <v>5.46119157E8</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>3.37987E8</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>6.0160712E8</v>
+        <v>5.88423436E8</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>3.644865E8</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>6.43415322E8</v>
+        <v>6.26265157E8</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>3.91986E8</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>6.91820497E8</v>
+        <v>6.79315499E8</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>4.204855E8</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>7.4668708E8</v>
+        <v>7.32459496E8</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>4.49985E8</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>8.0071418E8</v>
+        <v>7.67312779E8</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>4.804845E8</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>8.67254404E8</v>
+        <v>8.3735719E8</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>5.11984E8</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>9.02606758E8</v>
+        <v>8.93678649E8</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>5.444835E8</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>9.60540895E8</v>
+        <v>9.38133167E8</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>5.77983E8</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>1.027856026E9</v>
+        <v>1.004456571E9</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>6.124825E8</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>1.087805692E9</v>
+        <v>1.063519284E9</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>6.47982E8</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>1.154809064E9</v>
+        <v>1.125172719E9</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>6.844815E8</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>1.215057231E9</v>
+        <v>1.188437121E9</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>7.21981E8</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>1.267292893E9</v>
+        <v>1.256221815E9</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>7.604805E8</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>1.349633608E9</v>
+        <v>1.320900038E9</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>7.9998E8</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.44722186E9</v>
+        <v>1.398677697E9</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>8.404795E8</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>1.492751498E9</v>
+        <v>1.445158007E9</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>8.81979E8</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>1.570627944E9</v>
+        <v>1.532050232E9</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>9.244785E8</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>1.635449004E9</v>
+        <v>1.603760351E9</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>9.67978E8</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>1.7217562E9</v>
+        <v>1.651725045E9</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>1.0124775E9</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>1.796798163E9</v>
+        <v>1.729779395E9</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>1.057977E9</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>1.922434457E9</v>
+        <v>1.80797145E9</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>1.1044765E9</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>1.972358228E9</v>
+        <v>1.88732501E9</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>1.151976E9</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>2.059707614E9</v>
+        <v>1.962021429E9</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>1.2004755E9</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>2.161220864E9</v>
+        <v>2.048261056E9</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>1.249975E9</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>2.233826916E9</v>
+        <v>2.130755299E9</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>1.3004745E9</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>2.337940296E9</v>
+        <v>2.230060577E9</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>1.351974E9</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>2.43382435E9</v>
+        <v>2.310836938E9</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>1.4044735E9</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>2.493669668E9</v>
+        <v>2.388531205E9</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>1.457973E9</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>2.612454107E9</v>
+        <v>2.490529841E9</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>1.5124725E9</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>2.703717801E9</v>
+        <v>2.592373239E9</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>1.567972E9</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>2.795437799E9</v>
+        <v>2.675116375E9</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>1.6244715E9</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>2.891923561E9</v>
+        <v>2.764769955E9</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>1.681971E9</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>2.993137882E9</v>
+        <v>2.866622333E9</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>1.7404705E9</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>3.12241564E9</v>
+        <v>2.967947843E9</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>1.79997E9</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>3.205813514E9</v>
+        <v>3.060439755E9</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>1.8604695E9</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>3.304588075E9</v>
+        <v>3.171168497E9</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>1.921969E9</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>3.455337001E9</v>
+        <v>3.273232992E9</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>1.9844685E9</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>3.555040424E9</v>
+        <v>3.371293372E9</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>2.047968E9</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>3.686052742E9</v>
+        <v>3.503242678E9</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>2.1124675E9</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>3.809809075E9</v>
+        <v>3.609342078E9</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>2.177967E9</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>3.889641605E9</v>
+        <v>3.711430948E9</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>2.2444665E9</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>4.002449596E9</v>
+        <v>3.834827197E9</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>2.311966E9</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>4.120187141E9</v>
+        <v>3.944926433E9</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>2.3804655E9</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>4.222344008E9</v>
+        <v>4.053865448E9</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>2.449965E9</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>4.367048062E9</v>
+        <v>4.17443491E9</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>2.5204645E9</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>4.474660497E9</v>
+        <v>4.290173178E9</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>2.591964E9</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>4.670843695E9</v>
+        <v>4.414925941E9</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>2.6644635E9</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>4.7493381E9</v>
+        <v>4.542305348E9</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>2.737963E9</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>4.934048654E9</v>
+        <v>4.664282217E9</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>2.8124625E9</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>5.017293855E9</v>
+        <v>4.788798916E9</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>2.887962E9</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>5.141787033E9</v>
+        <v>4.916803123E9</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>2.9644615E9</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>5.30636711E9</v>
+        <v>5.04803996E9</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>3.041961E9</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>5.452833094E9</v>
+        <v>5.197523034E9</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>3.1204605E9</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>5.595442503E9</v>
+        <v>5.312369646E9</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>3.19996E9</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>5.821019995E9</v>
+        <v>5.45315982E9</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>3.2804595E9</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>5.792182933E9</v>
+        <v>5.58109817E9</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>3.361959E9</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>5.928779115E9</v>
+        <v>5.732867904E9</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>3.4444585E9</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>6.155990241E9</v>
+        <v>5.857242195E9</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>3.527958E9</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>6.335679722E9</v>
+        <v>6.153465806E9</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>3.6124575E9</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>6.559252377E9</v>
+        <v>6.147170756E9</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>3.697957E9</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>6.49737357E9</v>
+        <v>6.287211682E9</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>3.7844565E9</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>6.645312818E9</v>
+        <v>6.444198782E9</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>3.871956E9</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>6.829017531E9</v>
+        <v>6.600765926E9</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>3.9604555E9</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>6.979877221E9</v>
+        <v>6.745422939E9</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>4.049955E9</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>7.154129524E9</v>
+        <v>6.909314922E9</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>4.1404545E9</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>7.291128982E9</v>
+        <v>7.049804456E9</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>4.231954E9</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>7.48096239E9</v>
+        <v>7.207017784E9</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>4.3244535E9</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>7.637722407E9</v>
+        <v>7.367514203E9</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>4.417953E9</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>7.842545048E9</v>
+        <v>7.512111343E9</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>4.5124525E9</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>7.840365302E9</v>
+        <v>7.682642211E9</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>4.607952E9</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>8.034263977E9</v>
+        <v>7.845687869E9</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>4.7044515E9</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>8.045273473E9</v>
+        <v>8.036432606E9</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>4.801951E9</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>8.211315696E9</v>
+        <v>8.183771E9</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>4.9004505E9</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>8.426252756E9</v>
+        <v>8.339085122E9</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>4.99995E9</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>8.648737889E9</v>
+        <v>8.515346538E9</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Insertion Sort on Descending Array Results.xlsx
+++ b/Output Data/Insertion Sort on Descending Array Results.xlsx
@@ -401,7 +401,7 @@
         <v>499500.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>896361.0</v>
+        <v>853595.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>1999000.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>3570046.0</v>
+        <v>3429349.0</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>4498500.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>8031321.0</v>
+        <v>8272517.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>7998000.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>1.4443122E7</v>
+        <v>1.3685321E7</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>1.24975E7</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>2.1608873E7</v>
+        <v>2.2173374E7</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>1.7997E7</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>3.1548381E7</v>
+        <v>3.0593005E7</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>2.44965E7</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>4.3043691E7</v>
+        <v>4.1912549E7</v>
       </c>
     </row>
     <row r="9">
@@ -478,7 +478,7 @@
         <v>3.1996E7</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>5.5778767E7</v>
+        <v>5.5398583E7</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +489,7 @@
         <v>4.04955E7</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>6.8954324E7</v>
+        <v>6.9209633E7</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>4.9995E7</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>8.7387447E7</v>
+        <v>8.6006128E7</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +511,7 @@
         <v>6.04945E7</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>1.05738032E8</v>
+        <v>1.03289292E8</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>7.1994E7</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>1.2263075E8</v>
+        <v>1.20531829E8</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>8.44935E7</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>1.49761477E8</v>
+        <v>1.43369349E8</v>
       </c>
     </row>
     <row r="15">
@@ -544,7 +544,7 @@
         <v>9.7993E7</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>1.70666861E8</v>
+        <v>1.64143871E8</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1.124925E8</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>1.96267445E8</v>
+        <v>1.94357976E8</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>1.27992E8</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>2.22976935E8</v>
+        <v>2.14953311E8</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>1.444915E8</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>2.5208855E8</v>
+        <v>2.50121347E8</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>1.61991E8</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>2.82288114E8</v>
+        <v>2.84343414E8</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>1.804905E8</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>3.08249638E8</v>
+        <v>3.08353986E8</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>1.9999E8</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>3.47867402E8</v>
+        <v>3.35448362E8</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>2.204895E8</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>3.82815197E8</v>
+        <v>3.79607372E8</v>
       </c>
     </row>
     <row r="23">
@@ -632,7 +632,7 @@
         <v>2.41989E8</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>4.13627587E8</v>
+        <v>4.16650665E8</v>
       </c>
     </row>
     <row r="24">
@@ -643,7 +643,7 @@
         <v>2.644885E8</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>4.60594138E8</v>
+        <v>4.59262427E8</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>2.87988E8</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>5.04784367E8</v>
+        <v>4.82737577E8</v>
       </c>
     </row>
     <row r="26">
@@ -665,7 +665,7 @@
         <v>3.124875E8</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>5.46119157E8</v>
+        <v>5.35384642E8</v>
       </c>
     </row>
     <row r="27">
@@ -676,7 +676,7 @@
         <v>3.37987E8</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>5.88423436E8</v>
+        <v>5.78248291E8</v>
       </c>
     </row>
     <row r="28">
@@ -687,7 +687,7 @@
         <v>3.644865E8</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>6.26265157E8</v>
+        <v>6.12141494E8</v>
       </c>
     </row>
     <row r="29">
@@ -698,7 +698,7 @@
         <v>3.91986E8</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>6.79315499E8</v>
+        <v>6.71405631E8</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>4.204855E8</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>7.32459496E8</v>
+        <v>7.26942346E8</v>
       </c>
     </row>
     <row r="31">
@@ -720,7 +720,7 @@
         <v>4.49985E8</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>7.67312779E8</v>
+        <v>7.57494297E8</v>
       </c>
     </row>
     <row r="32">
@@ -731,7 +731,7 @@
         <v>4.804845E8</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>8.3735719E8</v>
+        <v>8.23960964E8</v>
       </c>
     </row>
     <row r="33">
@@ -742,7 +742,7 @@
         <v>5.11984E8</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>8.93678649E8</v>
+        <v>8.86424801E8</v>
       </c>
     </row>
     <row r="34">
@@ -753,7 +753,7 @@
         <v>5.444835E8</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>9.38133167E8</v>
+        <v>9.142402E8</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +764,7 @@
         <v>5.77983E8</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>1.004456571E9</v>
+        <v>9.90518935E8</v>
       </c>
     </row>
     <row r="36">
@@ -775,7 +775,7 @@
         <v>6.124825E8</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>1.063519284E9</v>
+        <v>1.048581369E9</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>6.47982E8</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>1.125172719E9</v>
+        <v>1.10905277E9</v>
       </c>
     </row>
     <row r="38">
@@ -797,7 +797,7 @@
         <v>6.844815E8</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>1.188437121E9</v>
+        <v>1.184693448E9</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         <v>7.21981E8</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>1.256221815E9</v>
+        <v>1.237169879E9</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>7.604805E8</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>1.320900038E9</v>
+        <v>1.304507248E9</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         <v>7.9998E8</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.398677697E9</v>
+        <v>1.358911966E9</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         <v>8.404795E8</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>1.445158007E9</v>
+        <v>1.425842209E9</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>8.81979E8</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>1.532050232E9</v>
+        <v>1.517578886E9</v>
       </c>
     </row>
     <row r="44">
@@ -863,7 +863,7 @@
         <v>9.244785E8</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>1.603760351E9</v>
+        <v>1.584770425E9</v>
       </c>
     </row>
     <row r="45">
@@ -874,7 +874,7 @@
         <v>9.67978E8</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>1.651725045E9</v>
+        <v>1.632554648E9</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         <v>1.0124775E9</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>1.729779395E9</v>
+        <v>1.732367978E9</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         <v>1.057977E9</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>1.80797145E9</v>
+        <v>1.819092136E9</v>
       </c>
     </row>
     <row r="48">
@@ -907,7 +907,7 @@
         <v>1.1044765E9</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>1.88732501E9</v>
+        <v>1.890955356E9</v>
       </c>
     </row>
     <row r="49">
@@ -918,7 +918,7 @@
         <v>1.151976E9</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>1.962021429E9</v>
+        <v>1.936353703E9</v>
       </c>
     </row>
     <row r="50">
@@ -929,7 +929,7 @@
         <v>1.2004755E9</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>2.048261056E9</v>
+        <v>2.027925734E9</v>
       </c>
     </row>
     <row r="51">
@@ -940,7 +940,7 @@
         <v>1.249975E9</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>2.130755299E9</v>
+        <v>2.141449187E9</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         <v>1.3004745E9</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>2.230060577E9</v>
+        <v>2.22899786E9</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         <v>1.351974E9</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>2.310836938E9</v>
+        <v>2.325576851E9</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         <v>1.4044735E9</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>2.388531205E9</v>
+        <v>2.406862118E9</v>
       </c>
     </row>
     <row r="55">
@@ -984,7 +984,7 @@
         <v>1.457973E9</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>2.490529841E9</v>
+        <v>2.483358956E9</v>
       </c>
     </row>
     <row r="56">
@@ -995,7 +995,7 @@
         <v>1.5124725E9</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>2.592373239E9</v>
+        <v>2.59262983E9</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         <v>1.567972E9</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>2.675116375E9</v>
+        <v>2.642765717E9</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1017,7 @@
         <v>1.6244715E9</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>2.764769955E9</v>
+        <v>2.745047458E9</v>
       </c>
     </row>
     <row r="59">
@@ -1028,7 +1028,7 @@
         <v>1.681971E9</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>2.866622333E9</v>
+        <v>2.847823995E9</v>
       </c>
     </row>
     <row r="60">
@@ -1039,7 +1039,7 @@
         <v>1.7404705E9</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>2.967947843E9</v>
+        <v>2.92656259E9</v>
       </c>
     </row>
     <row r="61">
@@ -1050,7 +1050,7 @@
         <v>1.79997E9</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>3.060439755E9</v>
+        <v>3.025863592E9</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>1.8604695E9</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>3.171168497E9</v>
+        <v>3.124397384E9</v>
       </c>
     </row>
     <row r="63">
@@ -1072,7 +1072,7 @@
         <v>1.921969E9</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>3.273232992E9</v>
+        <v>3.230771764E9</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>1.9844685E9</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>3.371293372E9</v>
+        <v>3.344432494E9</v>
       </c>
     </row>
     <row r="65">
@@ -1094,7 +1094,7 @@
         <v>2.047968E9</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>3.503242678E9</v>
+        <v>3.458832208E9</v>
       </c>
     </row>
     <row r="66">
@@ -1105,7 +1105,7 @@
         <v>2.1124675E9</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>3.609342078E9</v>
+        <v>3.565489267E9</v>
       </c>
     </row>
     <row r="67">
@@ -1116,7 +1116,7 @@
         <v>2.177967E9</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>3.711430948E9</v>
+        <v>3.664868101E9</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1127,7 @@
         <v>2.2444665E9</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>3.834827197E9</v>
+        <v>3.778658838E9</v>
       </c>
     </row>
     <row r="69">
@@ -1138,7 +1138,7 @@
         <v>2.311966E9</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>3.944926433E9</v>
+        <v>3.887947245E9</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1149,7 @@
         <v>2.3804655E9</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>4.053865448E9</v>
+        <v>4.016710965E9</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1160,7 @@
         <v>2.449965E9</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>4.17443491E9</v>
+        <v>4.121315289E9</v>
       </c>
     </row>
     <row r="72">
@@ -1171,7 +1171,7 @@
         <v>2.5204645E9</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>4.290173178E9</v>
+        <v>4.245149881E9</v>
       </c>
     </row>
     <row r="73">
@@ -1182,7 +1182,7 @@
         <v>2.591964E9</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>4.414925941E9</v>
+        <v>4.358065213E9</v>
       </c>
     </row>
     <row r="74">
@@ -1193,7 +1193,7 @@
         <v>2.6644635E9</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>4.542305348E9</v>
+        <v>4.473793217E9</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>2.737963E9</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>4.664282217E9</v>
+        <v>4.598562231E9</v>
       </c>
     </row>
     <row r="76">
@@ -1215,7 +1215,7 @@
         <v>2.8124625E9</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>4.788798916E9</v>
+        <v>4.734572101E9</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1226,7 @@
         <v>2.887962E9</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>4.916803123E9</v>
+        <v>4.862457849E9</v>
       </c>
     </row>
     <row r="78">
@@ -1237,7 +1237,7 @@
         <v>2.9644615E9</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>5.04803996E9</v>
+        <v>5.044001634E9</v>
       </c>
     </row>
     <row r="79">
@@ -1248,7 +1248,7 @@
         <v>3.041961E9</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>5.197523034E9</v>
+        <v>5.114295795E9</v>
       </c>
     </row>
     <row r="80">
@@ -1259,7 +1259,7 @@
         <v>3.1204605E9</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>5.312369646E9</v>
+        <v>5.241256529E9</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1270,7 @@
         <v>3.19996E9</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>5.45315982E9</v>
+        <v>5.382768582E9</v>
       </c>
     </row>
     <row r="82">
@@ -1281,7 +1281,7 @@
         <v>3.2804595E9</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>5.58109817E9</v>
+        <v>5.534120072E9</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         <v>3.361959E9</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>5.732867904E9</v>
+        <v>5.646154011E9</v>
       </c>
     </row>
     <row r="84">
@@ -1303,7 +1303,7 @@
         <v>3.4444585E9</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>5.857242195E9</v>
+        <v>5.809576859E9</v>
       </c>
     </row>
     <row r="85">
@@ -1314,7 +1314,7 @@
         <v>3.527958E9</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>6.153465806E9</v>
+        <v>5.933578663E9</v>
       </c>
     </row>
     <row r="86">
@@ -1325,7 +1325,7 @@
         <v>3.6124575E9</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>6.147170756E9</v>
+        <v>6.07631637E9</v>
       </c>
     </row>
     <row r="87">
@@ -1336,7 +1336,7 @@
         <v>3.697957E9</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>6.287211682E9</v>
+        <v>6.26342349E9</v>
       </c>
     </row>
     <row r="88">
@@ -1347,7 +1347,7 @@
         <v>3.7844565E9</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>6.444198782E9</v>
+        <v>6.36267189E9</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>3.871956E9</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>6.600765926E9</v>
+        <v>6.55163759E9</v>
       </c>
     </row>
     <row r="90">
@@ -1369,7 +1369,7 @@
         <v>3.9604555E9</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>6.745422939E9</v>
+        <v>6.656989024E9</v>
       </c>
     </row>
     <row r="91">
@@ -1380,7 +1380,7 @@
         <v>4.049955E9</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>6.909314922E9</v>
+        <v>6.81988757E9</v>
       </c>
     </row>
     <row r="92">
@@ -1391,7 +1391,7 @@
         <v>4.1404545E9</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>7.049804456E9</v>
+        <v>6.9897436E9</v>
       </c>
     </row>
     <row r="93">
@@ -1402,7 +1402,7 @@
         <v>4.231954E9</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>7.207017784E9</v>
+        <v>7.130406762E9</v>
       </c>
     </row>
     <row r="94">
@@ -1413,7 +1413,7 @@
         <v>4.3244535E9</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>7.367514203E9</v>
+        <v>7.266533809E9</v>
       </c>
     </row>
     <row r="95">
@@ -1424,7 +1424,7 @@
         <v>4.417953E9</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>7.512111343E9</v>
+        <v>7.439690037E9</v>
       </c>
     </row>
     <row r="96">
@@ -1435,7 +1435,7 @@
         <v>4.5124525E9</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>7.682642211E9</v>
+        <v>7.581580135E9</v>
       </c>
     </row>
     <row r="97">
@@ -1446,7 +1446,7 @@
         <v>4.607952E9</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>7.845687869E9</v>
+        <v>7.756556881E9</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>4.7044515E9</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>8.036432606E9</v>
+        <v>7.932712239E9</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1468,7 @@
         <v>4.801951E9</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>8.183771E9</v>
+        <v>8.080970943E9</v>
       </c>
     </row>
     <row r="100">
@@ -1479,7 +1479,7 @@
         <v>4.9004505E9</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>8.339085122E9</v>
+        <v>8.247662342E9</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>4.99995E9</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>8.515346538E9</v>
+        <v>8.414713826E9</v>
       </c>
     </row>
   </sheetData>
